--- a/models/calculation engines/Supply Demand Costs n Prices Alcoa/outputs/supply/Potential_Supply.xlsx
+++ b/models/calculation engines/Supply Demand Costs n Prices Alcoa/outputs/supply/Potential_Supply.xlsx
@@ -1622,40 +1622,40 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>16.59999999960243</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>22.36354673445933</v>
+        <v>1.001630561355001</v>
       </c>
       <c r="E26" t="n">
-        <v>22.79999999945393</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>22.79999999945396</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>22.7999999998233</v>
+        <v>0.9322493224860012</v>
       </c>
       <c r="H26" t="n">
-        <v>22.7999999998233</v>
+        <v>0.9322493224860012</v>
       </c>
       <c r="I26" t="n">
-        <v>22.7999999998233</v>
+        <v>3.004431583698001</v>
       </c>
       <c r="J26" t="n">
-        <v>22.7999999998233</v>
+        <v>0.5775305938506944</v>
       </c>
       <c r="K26" t="n">
-        <v>22.79999999982331</v>
+        <v>0.5775305938506944</v>
       </c>
       <c r="L26" t="n">
-        <v>22.7999999998233</v>
+        <v>0.5775305938506944</v>
       </c>
       <c r="M26" t="n">
-        <v>22.7999999998233</v>
+        <v>0.5775305938506944</v>
       </c>
       <c r="N26" t="n">
-        <v>22.7999999998233</v>
+        <v>0.5775305938506944</v>
       </c>
     </row>
     <row r="27">
@@ -2482,40 +2482,40 @@
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="n">
-        <v>110.1410049769603</v>
+        <v>93.54100497735789</v>
       </c>
       <c r="D44" t="n">
-        <v>163.0785467344593</v>
+        <v>141.716630561355</v>
       </c>
       <c r="E44" t="n">
-        <v>178.0149999994539</v>
+        <v>155.215</v>
       </c>
       <c r="F44" t="n">
-        <v>194.552999999454</v>
+        <v>171.753</v>
       </c>
       <c r="G44" t="n">
-        <v>218.3829999998233</v>
+        <v>196.515249322486</v>
       </c>
       <c r="H44" t="n">
-        <v>229.7929999998233</v>
+        <v>207.925249322486</v>
       </c>
       <c r="I44" t="n">
-        <v>248.2929999998233</v>
+        <v>228.497431583698</v>
       </c>
       <c r="J44" t="n">
-        <v>250.4429999998233</v>
+        <v>228.2205305938507</v>
       </c>
       <c r="K44" t="n">
-        <v>251.8699999998233</v>
+        <v>229.6475305938507</v>
       </c>
       <c r="L44" t="n">
-        <v>254.6699999998233</v>
+        <v>232.4475305938507</v>
       </c>
       <c r="M44" t="n">
-        <v>255.5699999998233</v>
+        <v>233.3475305938507</v>
       </c>
       <c r="N44" t="n">
-        <v>267.5699999998234</v>
+        <v>245.3475305938508</v>
       </c>
     </row>
   </sheetData>
